--- a/xlsx/无国界记者_intext.xlsx
+++ b/xlsx/无国界记者_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t>无国界记者</t>
   </si>
@@ -29,7 +29,7 @@
     <t>新闻自由</t>
   </si>
   <si>
-    <t>政策_政策_美國_无国界记者</t>
+    <t>政策_政策_美国_无国界记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%A2%85%E7%B4%8D%E5%BE%B7</t>
   </si>
   <si>
-    <t>羅伯特·梅納德</t>
+    <t>罗伯特·梅纳德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%93%A1</t>
   </si>
   <si>
-    <t>僱員</t>
+    <t>僱员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>口號</t>
+    <t>口号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%AB%99</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>記者</t>
+    <t>记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87</t>
@@ -107,19 +107,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -137,19 +134,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>華盛頓</t>
+    <t>华盛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_Freedom_of_Expression_eXchange</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%83%C2%B7%E6%A2%85%E7%B4%8D</t>
   </si>
   <si>
-    <t>羅勃·梅納</t>
+    <t>罗勃·梅纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%BD%BC%E5%88%A9%E5%9F%83</t>
@@ -203,15 +200,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立媒體</t>
+    <t>独立媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新聞自由</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8C%87%E6%95%B0</t>
   </si>
   <si>
@@ -221,31 +215,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9</t>
   </si>
   <si>
-    <t>奧地利</t>
+    <t>奥地利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>布魯塞爾</t>
+    <t>布鲁塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
@@ -257,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD</t>
   </si>
   <si>
-    <t>米蘭</t>
+    <t>米兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -275,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E9%87%8C</t>
   </si>
   <si>
-    <t>馬德里</t>
+    <t>马德里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9</t>
   </si>
   <si>
-    <t>斯德哥爾摩</t>
+    <t>斯德哥尔摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -299,19 +293,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6</t>
   </si>
   <si>
-    <t>日內瓦</t>
+    <t>日内瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>倫敦</t>
+    <t>伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -323,43 +317,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%88%A9%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙特利爾</t>
+    <t>蒙特利尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>臺北</t>
+    <t>台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1%E6%97%A5_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>言論自由日 (臺灣)</t>
+    <t>言论自由日 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E5%AF%A6%E5%8A%9B</t>
   </si>
   <si>
-    <t>軟實力</t>
+    <t>软实力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>臺灣人權</t>
+    <t>台湾人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
@@ -371,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%AF%94%E8%AE%93</t>
   </si>
   <si>
-    <t>阿比讓</t>
+    <t>阿比让</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -383,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%B0%B7</t>
@@ -413,49 +407,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>波斯語</t>
+    <t>波斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE</t>
   </si>
   <si>
-    <t>安道爾</t>
+    <t>安道尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
   </si>
   <si>
-    <t>梵蒂岡</t>
+    <t>梵蒂冈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8E%A0%E5%A4%BA%E8%80%85</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E7%B8%BD%E6%9B%B8%E8%A8%98</t>
   </si>
   <si>
-    <t>中共中央總書記</t>
+    <t>中共中央总书记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%A0%E8%BF%91%E5%B9%B3</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>俄羅斯總統</t>
+    <t>俄罗斯总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%BA%AC</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E7%8E%8B</t>
   </si>
   <si>
-    <t>沙特阿拉伯國王</t>
+    <t>沙特阿拉伯国王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%C2%B7%E6%9C%AC%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%8B%92-%E9%98%BF%E9%BD%90%E5%85%B9%C2%B7%E9%98%BF%E5%8B%92%E6%B2%99%E7%89%B9</t>
@@ -551,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E5%9C%8B%E9%98%B2%E8%BB%8D</t>
   </si>
   <si>
-    <t>以色列國防軍</t>
+    <t>以色列国防军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E5%85%84%E5%BC%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>穆斯林兄弟會</t>
+    <t>穆斯林兄弟会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -569,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -623,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -683,13 +677,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -701,19 +695,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E5%B3%B6%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>星島日報</t>
+    <t>星岛日报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%B0%91%E4%B8%BB%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>國家民主基金會</t>
+    <t>国家民主基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -743,19 +737,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E7%A7%91%E6%96%87%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教科文組織</t>
+    <t>联合国教科文组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%95%8C%E9%86%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>無國界醫生</t>
+    <t>无国界医生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%96%B0%E7%A4%BE</t>
@@ -767,25 +761,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%A0%AD%E6%AE%BC</t>
   </si>
   <si>
-    <t>新頭殼</t>
+    <t>新头壳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
   </si>
   <si>
-    <t>中央通訊社</t>
+    <t>中央通讯社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報</t>
+    <t>自由时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E6%B7%B1%E9%9D%96</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A6%E5%8B%9E%E7%B6%B2</t>
   </si>
   <si>
-    <t>苦勞網</t>
+    <t>苦劳网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E5%B0%94%E9%80%8A%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
@@ -809,19 +803,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%9D%9C%E5%B8%83%E5%88%87%E5%85%8B</t>
   </si>
   <si>
-    <t>亞歷山大·杜布切克</t>
+    <t>亚历山大·杜布切克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%81%E5%B1%B1%E8%98%87%E5%A7%AC</t>
   </si>
   <si>
-    <t>翁山蘇姬</t>
+    <t>翁山苏姬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E5%BB%A3%E5%A0%B4%E6%AF%8D%E8%A6%AA</t>
   </si>
   <si>
-    <t>五月廣場母親</t>
+    <t>五月广场母亲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E6%8A%A5</t>
@@ -845,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%B4%8D%E7%B4%8D%C2%B7%E5%8F%A4%E6%96%AF%E8%8A%92</t>
   </si>
   <si>
-    <t>沙納納·古斯芒</t>
+    <t>沙纳纳·古斯芒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%8F%B2%C2%B7%E5%AE%89%E5%8D%97</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A1%A3%E5%A5%B3%E5%A3%AB</t>
@@ -869,9 +863,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%95%8C%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>無國界記者</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E7%93%A6%C2%B7%E6%98%93%E5%8D%9C%E6%8B%89%E6%AC%A3</t>
   </si>
   <si>
@@ -881,19 +872,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%88%A9%E8%B5%AB%C2%B7%E9%BB%98%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E5%A5%A7%E6%96%AF%E6%9B%BC</t>
   </si>
   <si>
-    <t>薩利赫·默罕默德·奧斯曼</t>
+    <t>萨利赫·默罕默德·奥斯曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%B3_(%E7%A4%BE%E6%9C%83%E6%B4%BB%E5%8B%95%E5%AE%B6)</t>
   </si>
   <si>
-    <t>胡佳 (社會活動家)</t>
+    <t>胡佳 (社会活动家)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%88%BE%E5%8B%92%E8%8E%AB%C2%B7%E6%B3%95%E7%91%9E%E7%B4%8D%E6%96%AF</t>
   </si>
   <si>
-    <t>古爾勒莫·法瑞納斯</t>
+    <t>古尔勒莫·法瑞纳斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E7%8E%9B%C2%B7%E9%A9%AC%E5%A4%AB%E5%85%B9</t>
@@ -1730,7 +1721,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1756,10 +1747,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>11</v>
@@ -1785,10 +1776,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1814,10 +1805,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>13</v>
@@ -1843,10 +1834,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>11</v>
@@ -1872,10 +1863,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -1901,10 +1892,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1930,10 +1921,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1959,10 +1950,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1988,10 +1979,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2017,10 +2008,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2046,10 +2037,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2075,10 +2066,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2104,10 +2095,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -2133,10 +2124,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2162,10 +2153,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2191,10 +2182,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2220,10 +2211,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>17</v>
@@ -2249,10 +2240,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2278,10 +2269,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2307,10 +2298,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2336,10 +2327,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2365,10 +2356,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2394,10 +2385,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2423,10 +2414,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2452,10 +2443,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2481,10 +2472,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2510,10 +2501,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -2539,10 +2530,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2568,10 +2559,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2597,10 +2588,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2626,10 +2617,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2655,10 +2646,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2684,10 +2675,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2713,10 +2704,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2742,10 +2733,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2771,10 +2762,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2800,10 +2791,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>4</v>
@@ -2829,10 +2820,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2858,10 +2849,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2887,10 +2878,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2916,10 +2907,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2945,10 +2936,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2974,10 +2965,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
         <v>31</v>
-      </c>
-      <c r="F58" t="s">
-        <v>32</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3003,10 +2994,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3032,10 +3023,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3061,10 +3052,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3090,10 +3081,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3119,10 +3110,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -3148,10 +3139,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3177,10 +3168,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3206,10 +3197,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3235,10 +3226,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3264,10 +3255,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3293,10 +3284,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -3322,10 +3313,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3351,10 +3342,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3380,10 +3371,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3409,10 +3400,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3438,10 +3429,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3467,10 +3458,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3496,10 +3487,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3525,10 +3516,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3554,10 +3545,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3583,10 +3574,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3612,10 +3603,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3641,10 +3632,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3670,10 +3661,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3699,10 +3690,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3728,10 +3719,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3757,10 +3748,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3786,10 +3777,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3815,10 +3806,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3844,10 +3835,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3873,10 +3864,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3902,10 +3893,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3931,10 +3922,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3960,10 +3951,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3989,10 +3980,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4018,10 +4009,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4047,10 +4038,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4076,10 +4067,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4105,10 +4096,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4134,10 +4125,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4163,10 +4154,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4192,10 +4183,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4221,10 +4212,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4250,10 +4241,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4279,10 +4270,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4308,10 +4299,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4337,10 +4328,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4366,10 +4357,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4395,10 +4386,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4424,10 +4415,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4453,10 +4444,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4482,10 +4473,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4511,10 +4502,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4540,10 +4531,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4569,10 +4560,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4598,10 +4589,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4627,10 +4618,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4656,10 +4647,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4685,10 +4676,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4714,10 +4705,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4743,10 +4734,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4772,10 +4763,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4801,10 +4792,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4830,10 +4821,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4859,10 +4850,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>5</v>
@@ -4888,10 +4879,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4917,10 +4908,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4946,10 +4937,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4975,10 +4966,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5004,10 +4995,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5033,10 +5024,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5062,10 +5053,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5091,10 +5082,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5120,10 +5111,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5149,10 +5140,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" t="s">
         <v>53</v>
-      </c>
-      <c r="F133" t="s">
-        <v>54</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5178,10 +5169,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5207,10 +5198,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5236,10 +5227,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5265,10 +5256,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5294,10 +5285,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5323,10 +5314,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5352,10 +5343,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5381,10 +5372,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5410,10 +5401,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5439,10 +5430,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>6</v>
@@ -5468,10 +5459,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5497,10 +5488,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="G145" t="n">
         <v>25</v>
@@ -5526,10 +5517,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5555,10 +5546,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5584,10 +5575,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5613,10 +5604,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5642,10 +5633,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5671,10 +5662,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5700,10 +5691,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5729,10 +5720,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5758,10 +5749,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5787,10 +5778,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5816,10 +5807,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5845,10 +5836,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5874,10 +5865,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5903,10 +5894,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
